--- a/normalisasi.xlsx
+++ b/normalisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI OPAL SEMANGATTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD779A0-1D46-41D4-AF40-E8F0F8043A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9435B-5813-4F15-996D-687F9AD54E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="1370" windowWidth="6890" windowHeight="8980" xr2:uid="{3605C83A-C231-42BF-927B-8E37663F4D7D}"/>
+    <workbookView xWindow="320" yWindow="1060" windowWidth="6890" windowHeight="8980" xr2:uid="{3605C83A-C231-42BF-927B-8E37663F4D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="198">
   <si>
     <t>before</t>
   </si>
@@ -556,6 +556,69 @@
   </si>
   <si>
     <t>maaf</t>
+  </si>
+  <si>
+    <t>pljrn</t>
+  </si>
+  <si>
+    <t>offline</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>penilaian tengan semester</t>
+  </si>
+  <si>
+    <t>mesti</t>
+  </si>
+  <si>
+    <t>emg</t>
+  </si>
+  <si>
+    <t>memang</t>
+  </si>
+  <si>
+    <t>kalo</t>
+  </si>
+  <si>
+    <t>cepet</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>daring</t>
+  </si>
+  <si>
+    <t>agak</t>
+  </si>
+  <si>
+    <t>sedikit</t>
+  </si>
+  <si>
+    <t>blm</t>
+  </si>
+  <si>
+    <t>luring</t>
+  </si>
+  <si>
+    <t>taun</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>penuh</t>
+  </si>
+  <si>
+    <t>or</t>
   </si>
 </sst>
 </file>
@@ -911,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D6C87-9617-4933-83E5-090B75ACE748}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1735,6 +1798,134 @@
         <v>176</v>
       </c>
     </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>188</v>
+      </c>
+      <c r="B111" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>195</v>
+      </c>
+      <c r="B117" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>197</v>
+      </c>
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/normalisasi.xlsx
+++ b/normalisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI OPAL SEMANGATTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9435B-5813-4F15-996D-687F9AD54E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EECD206-1A54-4F67-A4A7-E457292B563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1060" windowWidth="6890" windowHeight="8980" xr2:uid="{3605C83A-C231-42BF-927B-8E37663F4D7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3605C83A-C231-42BF-927B-8E37663F4D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="200">
   <si>
     <t>before</t>
   </si>
@@ -619,6 +619,12 @@
   </si>
   <si>
     <t>or</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Cuma</t>
   </si>
 </sst>
 </file>
@@ -974,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D6C87-9617-4933-83E5-090B75ACE748}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,6 +1932,22 @@
         <v>85</v>
       </c>
     </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>198</v>
+      </c>
+      <c r="B119" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
